--- a/techniqo/data_new_ticker/FINEORG.xlsx
+++ b/techniqo/data_new_ticker/FINEORG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G545"/>
+  <dimension ref="A1:G547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19461,6 +19461,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>3200</v>
+      </c>
+      <c r="C546" t="n">
+        <v>3260</v>
+      </c>
+      <c r="D546" t="n">
+        <v>3060</v>
+      </c>
+      <c r="E546" t="n">
+        <v>3105.85</v>
+      </c>
+      <c r="F546" t="n">
+        <v>150386</v>
+      </c>
+      <c r="G546" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>3148</v>
+      </c>
+      <c r="C547" t="n">
+        <v>3165.45</v>
+      </c>
+      <c r="D547" t="n">
+        <v>3050</v>
+      </c>
+      <c r="E547" t="n">
+        <v>3070.95</v>
+      </c>
+      <c r="F547" t="n">
+        <v>68616</v>
+      </c>
+      <c r="G547" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/FINEORG.xlsx
+++ b/techniqo/data_new_ticker/FINEORG.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G547"/>
+  <dimension ref="A1:G549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19511,6 +19511,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>3070</v>
+      </c>
+      <c r="C548" t="n">
+        <v>3095.95</v>
+      </c>
+      <c r="D548" t="n">
+        <v>2920.1</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2941.8</v>
+      </c>
+      <c r="F548" t="n">
+        <v>74713</v>
+      </c>
+      <c r="G548" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>2990</v>
+      </c>
+      <c r="C549" t="n">
+        <v>2990</v>
+      </c>
+      <c r="D549" t="n">
+        <v>2822.25</v>
+      </c>
+      <c r="E549" t="n">
+        <v>2863.35</v>
+      </c>
+      <c r="F549" t="n">
+        <v>113910</v>
+      </c>
+      <c r="G549" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
